--- a/PCAcombined_predicted_factors_matrix_8.xlsx
+++ b/PCAcombined_predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.1314501889976766</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1677299093458588</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06685284893482218</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.01006295619247113</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.06380516150883775</v>
+        <v>0.1677505914438218</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.3060778340474309</v>
       </c>
       <c r="B3" t="n">
-        <v>0.212411104218235</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1279270389954994</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07920051494227315</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.05623407355911494</v>
+        <v>0.2124372957739501</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>1.03719791445981</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7103171674573148</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.3638875357339772</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.2130765659484853</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.134778939668774</v>
+        <v>-0.7104047537995394</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.4978539223681716</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2867879369646127</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1460467411191056</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06708318656349503</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02559306976865519</v>
+        <v>0.2868232996272958</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>-0.5415090815396097</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.263631949472706</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.03056915154082095</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01197378701603129</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01844884750212137</v>
+        <v>-0.2636644568640608</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.1529472943088605</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1242438190259192</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0404910160983355</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.008164755150904411</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.003757311486619867</v>
+        <v>0.1242591390296453</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.07460167615704844</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03970434526476997</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08119656509191049</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04951987035169471</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.02376060904404459</v>
+        <v>0.03970924104729085</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +502,7 @@
         <v>0.2380247451878268</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1246887460147881</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03697091914095351</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.008414259129463267</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.00358704253788272</v>
+        <v>0.1247041208806649</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_8.xlsx
+++ b/PCAcombined_predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.1677505914438218</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.1555885240919069</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1318825419829381</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.2124372957739501</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.1468259562649721</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1024461223825919</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>-0.7104047537995394</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.4883065807300985</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3323038007929048</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.2868232996272958</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.1847759505010285</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1240368697261119</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>-0.2636644568640608</v>
       </c>
+      <c r="C6" t="n">
+        <v>-0.1537020566363357</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.09608239859402304</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.1242591390296453</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.0903962278432472</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06177084194062779</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +538,12 @@
       <c r="B8" t="n">
         <v>0.03970924104729085</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.02328998227917119</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0127508476836001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -503,6 +551,12 @@
       </c>
       <c r="B9" t="n">
         <v>0.1247041208806649</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07355269465871508</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.04434355167199876</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_8.xlsx
+++ b/PCAcombined_predicted_factors_matrix_8.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\04. Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCC193A-7D52-472D-A1DE-8B5D3DB0684F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-49890" yWindow="-3675" windowWidth="29385" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +52,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,143 +376,1301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AV9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>0.1314501889976766</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.1677505914438218</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1555885240919069</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1318825419829381</v>
+      <c r="B2">
+        <v>0.16775059144382179</v>
+      </c>
+      <c r="C2">
+        <v>0.15661541753030969</v>
+      </c>
+      <c r="D2">
+        <v>0.1351846504547973</v>
+      </c>
+      <c r="E2">
+        <v>0.1104437813623645</v>
+      </c>
+      <c r="F2">
+        <v>8.4290393599149097E-2</v>
+      </c>
+      <c r="G2">
+        <v>5.7459662021329003E-2</v>
+      </c>
+      <c r="H2">
+        <v>3.0389056906235858E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.393038513893411E-3</v>
+      </c>
+      <c r="J2">
+        <v>-2.3300391120215751E-2</v>
+      </c>
+      <c r="K2">
+        <v>-4.9533849586208073E-2</v>
+      </c>
+      <c r="L2">
+        <v>-7.5205911813110607E-2</v>
+      </c>
+      <c r="M2">
+        <v>-0.1002570070141223</v>
+      </c>
+      <c r="N2">
+        <v>-0.1246572490593197</v>
+      </c>
+      <c r="O2">
+        <v>-0.1483968201344425</v>
+      </c>
+      <c r="P2">
+        <v>-0.17147883520240831</v>
+      </c>
+      <c r="Q2">
+        <v>-0.1939142923783149</v>
+      </c>
+      <c r="R2">
+        <v>-0.21571863772707339</v>
+      </c>
+      <c r="S2">
+        <v>-0.23690951347932429</v>
+      </c>
+      <c r="T2">
+        <v>-0.2575053396779276</v>
+      </c>
+      <c r="U2">
+        <v>-0.27752446367278383</v>
+      </c>
+      <c r="V2">
+        <v>-0.29698468479940038</v>
+      </c>
+      <c r="W2">
+        <v>-0.31590301909588758</v>
+      </c>
+      <c r="X2">
+        <v>-0.33429561188011181</v>
+      </c>
+      <c r="Y2">
+        <v>-0.35217773692985449</v>
+      </c>
+      <c r="Z2">
+        <v>-0.36956384263635628</v>
+      </c>
+      <c r="AA2">
+        <v>-0.38646762026979481</v>
+      </c>
+      <c r="AB2">
+        <v>-0.40290207935692801</v>
+      </c>
+      <c r="AC2">
+        <v>-0.41887962160767372</v>
+      </c>
+      <c r="AD2">
+        <v>-0.4344121089221914</v>
+      </c>
+      <c r="AE2">
+        <v>-0.44951092353458982</v>
+      </c>
+      <c r="AF2">
+        <v>-0.46418701984159039</v>
+      </c>
+      <c r="AG2">
+        <v>-0.4784509682924124</v>
+      </c>
+      <c r="AH2">
+        <v>-0.492312992127792</v>
+      </c>
+      <c r="AI2">
+        <v>-0.50578299791523518</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.51887060084079295</v>
+      </c>
+      <c r="AK2">
+        <v>-0.53158514565247728</v>
+      </c>
+      <c r="AL2">
+        <v>-0.54393572404871215</v>
+      </c>
+      <c r="AM2">
+        <v>-0.5559311891918205</v>
+      </c>
+      <c r="AN2">
+        <v>-0.56758016791556021</v>
+      </c>
+      <c r="AO2">
+        <v>-0.57889107109437665</v>
+      </c>
+      <c r="AP2">
+        <v>-0.58987210255342526</v>
+      </c>
+      <c r="AQ2">
+        <v>-0.60053126682322899</v>
+      </c>
+      <c r="AR2">
+        <v>-0.6108763759803697</v>
+      </c>
+      <c r="AS2">
+        <v>-0.62091505576463302</v>
+      </c>
+      <c r="AT2">
+        <v>-0.63065475112181058</v>
+      </c>
+      <c r="AU2">
+        <v>-0.64010273128861128</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.3060778340474309</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.30607783404743089</v>
+      </c>
+      <c r="B3">
         <v>0.2124372957739501</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.1468259562649721</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1024461223825919</v>
+      <c r="C3">
+        <v>0.14666959274496111</v>
+      </c>
+      <c r="D3">
+        <v>0.10194914477195639</v>
+      </c>
+      <c r="E3">
+        <v>7.2991202582105286E-2</v>
+      </c>
+      <c r="F3">
+        <v>5.4693048405553037E-2</v>
+      </c>
+      <c r="G3">
+        <v>4.3430772263494628E-2</v>
+      </c>
+      <c r="H3">
+        <v>3.6816244142308482E-2</v>
+      </c>
+      <c r="I3">
+        <v>3.329941147113117E-2</v>
+      </c>
+      <c r="J3">
+        <v>3.1868312665114792E-2</v>
+      </c>
+      <c r="K3">
+        <v>3.1853352539545868E-2</v>
+      </c>
+      <c r="L3">
+        <v>3.2804556650309541E-2</v>
+      </c>
+      <c r="M3">
+        <v>3.441493906405544E-2</v>
+      </c>
+      <c r="N3">
+        <v>3.6472198329505219E-2</v>
+      </c>
+      <c r="O3">
+        <v>3.8827796161711878E-2</v>
+      </c>
+      <c r="P3">
+        <v>4.1376813963041277E-2</v>
+      </c>
+      <c r="Q3">
+        <v>4.4044596399383448E-2</v>
+      </c>
+      <c r="R3">
+        <v>4.6777744708538807E-2</v>
+      </c>
+      <c r="S3">
+        <v>4.9537948378396313E-2</v>
+      </c>
+      <c r="T3">
+        <v>5.2297701728367202E-2</v>
+      </c>
+      <c r="U3">
+        <v>5.5037293013268901E-2</v>
+      </c>
+      <c r="V3">
+        <v>5.7742665686159253E-2</v>
+      </c>
+      <c r="W3">
+        <v>6.0403885563314337E-2</v>
+      </c>
+      <c r="X3">
+        <v>6.3014033966340505E-2</v>
+      </c>
+      <c r="Y3">
+        <v>6.5568403459697541E-2</v>
+      </c>
+      <c r="Z3">
+        <v>6.8063910451489559E-2</v>
+      </c>
+      <c r="AA3">
+        <v>7.0498664385874529E-2</v>
+      </c>
+      <c r="AB3">
+        <v>7.2871650720070194E-2</v>
+      </c>
+      <c r="AC3">
+        <v>7.5182497014371547E-2</v>
+      </c>
+      <c r="AD3">
+        <v>7.7431299993400815E-2</v>
+      </c>
+      <c r="AE3">
+        <v>7.9618497493161827E-2</v>
+      </c>
+      <c r="AF3">
+        <v>8.1744773546253494E-2</v>
+      </c>
+      <c r="AG3">
+        <v>8.3810987988083327E-2</v>
+      </c>
+      <c r="AH3">
+        <v>8.5818124240362031E-2</v>
+      </c>
+      <c r="AI3">
+        <v>8.7767250588153767E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>8.9659491484186574E-2</v>
+      </c>
+      <c r="AK3">
+        <v>9.1496006310286801E-2</v>
+      </c>
+      <c r="AL3">
+        <v>9.3277973687417276E-2</v>
+      </c>
+      <c r="AM3">
+        <v>9.5006579915530964E-2</v>
+      </c>
+      <c r="AN3">
+        <v>9.6683010487507104E-2</v>
+      </c>
+      <c r="AO3">
+        <v>9.8308443891205341E-2</v>
+      </c>
+      <c r="AP3">
+        <v>9.9884047114136218E-2</v>
+      </c>
+      <c r="AQ3">
+        <v>0.1014109724145615</v>
+      </c>
+      <c r="AR3">
+        <v>0.1028903550339505</v>
+      </c>
+      <c r="AS3">
+        <v>0.1043233116085749</v>
+      </c>
+      <c r="AT3">
+        <v>0.1057109390997695</v>
+      </c>
+      <c r="AU3">
+        <v>0.10705431410837379</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1.03719791445981</v>
       </c>
-      <c r="B4" t="n">
-        <v>-0.7104047537995394</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.4883065807300985</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.3323038007929048</v>
+      <c r="B4">
+        <v>-0.71040475379953938</v>
+      </c>
+      <c r="C4">
+        <v>-0.488106917451679</v>
+      </c>
+      <c r="D4">
+        <v>-0.33174387894751162</v>
+      </c>
+      <c r="E4">
+        <v>-0.22417256922025969</v>
+      </c>
+      <c r="F4">
+        <v>-0.1507560410563786</v>
+      </c>
+      <c r="G4">
+        <v>-0.10082430331189871</v>
+      </c>
+      <c r="H4">
+        <v>-6.6929247471055914E-2</v>
+      </c>
+      <c r="I4">
+        <v>-4.3952045277988287E-2</v>
+      </c>
+      <c r="J4">
+        <v>-2.8397719809861031E-2</v>
+      </c>
+      <c r="K4">
+        <v>-1.788726573525479E-2</v>
+      </c>
+      <c r="L4">
+        <v>-1.080361585494501E-2</v>
+      </c>
+      <c r="M4">
+        <v>-6.0482352066967742E-3</v>
+      </c>
+      <c r="N4">
+        <v>-2.874902158346679E-3</v>
+      </c>
+      <c r="O4">
+        <v>-7.7660338190340306E-4</v>
+      </c>
+      <c r="P4">
+        <v>5.9128468219986244E-4</v>
+      </c>
+      <c r="Q4">
+        <v>1.4631227009488271E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.998370673341169E-3</v>
+      </c>
+      <c r="S4">
+        <v>2.3055805082608611E-3</v>
+      </c>
+      <c r="T4">
+        <v>2.4586811268275141E-3</v>
+      </c>
+      <c r="U4">
+        <v>2.5080384668145069E-3</v>
+      </c>
+      <c r="V4">
+        <v>2.487971989892221E-3</v>
+      </c>
+      <c r="W4">
+        <v>2.4218667308923869E-3</v>
+      </c>
+      <c r="X4">
+        <v>2.3256526407127429E-3</v>
+      </c>
+      <c r="Y4">
+        <v>2.2101744021941531E-3</v>
+      </c>
+      <c r="Z4">
+        <v>2.082806639495179E-3</v>
+      </c>
+      <c r="AA4">
+        <v>1.9485554918077311E-3</v>
+      </c>
+      <c r="AB4">
+        <v>1.8108102987157951E-3</v>
+      </c>
+      <c r="AC4">
+        <v>1.6718567669228919E-3</v>
+      </c>
+      <c r="AD4">
+        <v>1.5332274302092899E-3</v>
+      </c>
+      <c r="AE4">
+        <v>1.3959410524714249E-3</v>
+      </c>
+      <c r="AF4">
+        <v>1.2606661895858239E-3</v>
+      </c>
+      <c r="AG4">
+        <v>1.1278329379509199E-3</v>
+      </c>
+      <c r="AH4">
+        <v>9.9770927418306758E-4</v>
+      </c>
+      <c r="AI4">
+        <v>8.7045319188155251E-4</v>
+      </c>
+      <c r="AJ4">
+        <v>7.4614829359500082E-4</v>
+      </c>
+      <c r="AK4">
+        <v>6.2482807343159827E-4</v>
+      </c>
+      <c r="AL4">
+        <v>5.0649247022338008E-4</v>
+      </c>
+      <c r="AM4">
+        <v>3.9111913960322508E-4</v>
+      </c>
+      <c r="AN4">
+        <v>2.7867111931383689E-4</v>
+      </c>
+      <c r="AO4">
+        <v>1.6910203277718219E-4</v>
+      </c>
+      <c r="AP4">
+        <v>6.2359613647796752E-5</v>
+      </c>
+      <c r="AQ4">
+        <v>-4.1611913649887292E-5</v>
+      </c>
+      <c r="AR4">
+        <v>-1.428702320105573E-4</v>
+      </c>
+      <c r="AS4">
+        <v>-2.4147385895716521E-4</v>
+      </c>
+      <c r="AT4">
+        <v>-3.3748143297596508E-4</v>
+      </c>
+      <c r="AU4">
+        <v>-4.3095124302562301E-4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.4978539223681716</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.49785392236817161</v>
+      </c>
+      <c r="B5">
         <v>0.2868232996272958</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.1847759505010285</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1240368697261119</v>
+      <c r="C5">
+        <v>0.18474327064538071</v>
+      </c>
+      <c r="D5">
+        <v>0.123948002795712</v>
+      </c>
+      <c r="E5">
+        <v>8.5181116285780845E-2</v>
+      </c>
+      <c r="F5">
+        <v>5.9439194018784287E-2</v>
+      </c>
+      <c r="G5">
+        <v>4.1909273420994347E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9759780812037381E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.121867489141932E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.513310116663954E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.0734396352339149E-2</v>
+      </c>
+      <c r="L5">
+        <v>7.5019299753629563E-3</v>
+      </c>
+      <c r="M5">
+        <v>5.0794828648589706E-3</v>
+      </c>
+      <c r="N5">
+        <v>3.2217582266133582E-3</v>
+      </c>
+      <c r="O5">
+        <v>1.759179926236944E-3</v>
+      </c>
+      <c r="P5">
+        <v>5.7426101278387396E-4</v>
+      </c>
+      <c r="Q5">
+        <v>-4.1447987602289782E-4</v>
+      </c>
+      <c r="R5">
+        <v>-1.26356718903604E-3</v>
+      </c>
+      <c r="S5">
+        <v>-2.012204407244673E-3</v>
+      </c>
+      <c r="T5">
+        <v>-2.687570830736701E-3</v>
+      </c>
+      <c r="U5">
+        <v>-3.3085029657251479E-3</v>
+      </c>
+      <c r="V5">
+        <v>-3.8880549854624301E-3</v>
+      </c>
+      <c r="W5">
+        <v>-4.4352792256601948E-3</v>
+      </c>
+      <c r="X5">
+        <v>-4.9564632577218546E-3</v>
+      </c>
+      <c r="Y5">
+        <v>-5.4559882562438267E-3</v>
+      </c>
+      <c r="Z5">
+        <v>-5.9369235893792574E-3</v>
+      </c>
+      <c r="AA5">
+        <v>-6.4014378806779284E-3</v>
+      </c>
+      <c r="AB5">
+        <v>-6.8510825662518914E-3</v>
+      </c>
+      <c r="AC5">
+        <v>-7.2869870273403591E-3</v>
+      </c>
+      <c r="AD5">
+        <v>-7.7099925243511187E-3</v>
+      </c>
+      <c r="AE5">
+        <v>-8.1207438696243878E-3</v>
+      </c>
+      <c r="AF5">
+        <v>-8.5197519864620812E-3</v>
+      </c>
+      <c r="AG5">
+        <v>-8.907436463602536E-3</v>
+      </c>
+      <c r="AH5">
+        <v>-9.28415440245247E-3</v>
+      </c>
+      <c r="AI5">
+        <v>-9.650219900147073E-3</v>
+      </c>
+      <c r="AJ5">
+        <v>-1.000591715618173E-2</v>
+      </c>
+      <c r="AK5">
+        <v>-1.035150925246129E-2</v>
+      </c>
+      <c r="AL5">
+        <v>-1.068724400904221E-2</v>
+      </c>
+      <c r="AM5">
+        <v>-1.1013357871887459E-2</v>
+      </c>
+      <c r="AN5">
+        <v>-1.1330078482590581E-2</v>
+      </c>
+      <c r="AO5">
+        <v>-1.16376263701988E-2</v>
+      </c>
+      <c r="AP5">
+        <v>-1.1936216061900481E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>-1.222605681180966E-2</v>
+      </c>
+      <c r="AR5">
+        <v>-1.2507353080872859E-2</v>
+      </c>
+      <c r="AS5">
+        <v>-1.278030485617599E-2</v>
+      </c>
+      <c r="AT5">
+        <v>-1.304510786788611E-2</v>
+      </c>
+      <c r="AU5">
+        <v>-1.330195374183887E-2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-0.5415090815396097</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.2636644568640608</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.1537020566363357</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.09608239859402304</v>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-0.54150908153960975</v>
+      </c>
+      <c r="B6">
+        <v>-0.26366445686406081</v>
+      </c>
+      <c r="C6">
+        <v>-0.15366882944318669</v>
+      </c>
+      <c r="D6">
+        <v>-9.5989420168993811E-2</v>
+      </c>
+      <c r="E6">
+        <v>-6.1697372102517557E-2</v>
+      </c>
+      <c r="F6">
+        <v>-3.9970475769337349E-2</v>
+      </c>
+      <c r="G6">
+        <v>-2.578471733315827E-2</v>
+      </c>
+      <c r="H6">
+        <v>-1.6388407963946649E-2</v>
+      </c>
+      <c r="I6">
+        <v>-1.011976852814853E-2</v>
+      </c>
+      <c r="J6">
+        <v>-5.9234202997203774E-3</v>
+      </c>
+      <c r="K6">
+        <v>-3.1117846133361408E-3</v>
+      </c>
+      <c r="L6">
+        <v>-1.2306293691223111E-3</v>
+      </c>
+      <c r="M6">
+        <v>2.2708405817852169E-5</v>
+      </c>
+      <c r="N6">
+        <v>8.5111336024226106E-4</v>
+      </c>
+      <c r="O6">
+        <v>1.391217357201357E-3</v>
+      </c>
+      <c r="P6">
+        <v>1.735385290586404E-3</v>
+      </c>
+      <c r="Q6">
+        <v>1.9462591545387081E-3</v>
+      </c>
+      <c r="R6">
+        <v>2.066441704546508E-3</v>
+      </c>
+      <c r="S6">
+        <v>2.1249775369885618E-3</v>
+      </c>
+      <c r="T6">
+        <v>2.1417097023380951E-3</v>
+      </c>
+      <c r="U6">
+        <v>2.1302192927195461E-3</v>
+      </c>
+      <c r="V6">
+        <v>2.0998154777885159E-3</v>
+      </c>
+      <c r="W6">
+        <v>2.0568866830670781E-3</v>
+      </c>
+      <c r="X6">
+        <v>2.0058204239506842E-3</v>
+      </c>
+      <c r="Y6">
+        <v>1.949630988018286E-3</v>
+      </c>
+      <c r="Z6">
+        <v>1.890388683600072E-3</v>
+      </c>
+      <c r="AA6">
+        <v>1.82951396627499E-3</v>
+      </c>
+      <c r="AB6">
+        <v>1.7679793424334759E-3</v>
+      </c>
+      <c r="AC6">
+        <v>1.7064481965402729E-3</v>
+      </c>
+      <c r="AD6">
+        <v>1.6453703937076079E-3</v>
+      </c>
+      <c r="AE6">
+        <v>1.5850482087231921E-3</v>
+      </c>
+      <c r="AF6">
+        <v>1.525681850854575E-3</v>
+      </c>
+      <c r="AG6">
+        <v>1.467400936891777E-3</v>
+      </c>
+      <c r="AH6">
+        <v>1.4102862734933211E-3</v>
+      </c>
+      <c r="AI6">
+        <v>1.3543849476311349E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>1.2997207902969671E-3</v>
+      </c>
+      <c r="AK6">
+        <v>1.246301637657825E-3</v>
+      </c>
+      <c r="AL6">
+        <v>1.194124373099705E-3</v>
+      </c>
+      <c r="AM6">
+        <v>1.14317843008529E-3</v>
+      </c>
+      <c r="AN6">
+        <v>1.093448226436965E-3</v>
+      </c>
+      <c r="AO6">
+        <v>1.044914856134658E-3</v>
+      </c>
+      <c r="AP6">
+        <v>9.975572648070561E-4</v>
+      </c>
+      <c r="AQ6">
+        <v>9.5135306593132078E-4</v>
+      </c>
+      <c r="AR6">
+        <v>9.0627910685812843E-4</v>
+      </c>
+      <c r="AS6">
+        <v>8.6231186052956031E-4</v>
+      </c>
+      <c r="AT6">
+        <v>8.1942769571733689E-4</v>
+      </c>
+      <c r="AU6">
+        <v>7.7760306254766819E-4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>0.1529472943088605</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.1242591390296453</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.0903962278432472</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06177084194062779</v>
+      <c r="C7">
+        <v>9.0419509354259617E-2</v>
+      </c>
+      <c r="D7">
+        <v>6.1831268854616241E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.1408648506973698E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.752305203884595E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.8228180590670408E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.2035025231379559E-2</v>
+      </c>
+      <c r="I7">
+        <v>7.9157374045809841E-3</v>
+      </c>
+      <c r="J7">
+        <v>5.1818454095086536E-3</v>
+      </c>
+      <c r="K7">
+        <v>3.375360053760794E-3</v>
+      </c>
+      <c r="L7">
+        <v>2.1912929329964922E-3</v>
+      </c>
+      <c r="M7">
+        <v>1.4258418692928161E-3</v>
+      </c>
+      <c r="N7">
+        <v>9.4230629119105127E-4</v>
+      </c>
+      <c r="O7">
+        <v>6.4868611945041689E-4</v>
+      </c>
+      <c r="P7">
+        <v>4.8289587848734581E-4</v>
+      </c>
+      <c r="Q7">
+        <v>4.0295063658673359E-4</v>
+      </c>
+      <c r="R7">
+        <v>3.8041681289356188E-4</v>
+      </c>
+      <c r="S7">
+        <v>3.9602117358502708E-4</v>
+      </c>
+      <c r="T7">
+        <v>4.3669533110758381E-4</v>
+      </c>
+      <c r="U7">
+        <v>4.9358019299534559E-4</v>
+      </c>
+      <c r="V7">
+        <v>5.6067522327637727E-4</v>
+      </c>
+      <c r="W7">
+        <v>6.3392241290246827E-4</v>
+      </c>
+      <c r="X7">
+        <v>7.1058416973031942E-4</v>
+      </c>
+      <c r="Y7">
+        <v>7.8882039237335166E-4</v>
+      </c>
+      <c r="Z7">
+        <v>8.674007663126745E-4</v>
+      </c>
+      <c r="AA7">
+        <v>9.4550898175996538E-4</v>
+      </c>
+      <c r="AB7">
+        <v>1.0226094975555381E-3</v>
+      </c>
+      <c r="AC7">
+        <v>1.098356889461424E-3</v>
+      </c>
+      <c r="AD7">
+        <v>1.1725342015416391E-3</v>
+      </c>
+      <c r="AE7">
+        <v>1.2450110521244799E-3</v>
+      </c>
+      <c r="AF7">
+        <v>1.3157151926304689E-3</v>
+      </c>
+      <c r="AG7">
+        <v>1.3846132240820941E-3</v>
+      </c>
+      <c r="AH7">
+        <v>1.4516975435005569E-3</v>
+      </c>
+      <c r="AI7">
+        <v>1.5169775247691191E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>1.58047357448404E-3</v>
+      </c>
+      <c r="AK7">
+        <v>1.6422131371394951E-3</v>
+      </c>
+      <c r="AL7">
+        <v>1.702228019835726E-3</v>
+      </c>
+      <c r="AM7">
+        <v>1.7605526084643859E-3</v>
+      </c>
+      <c r="AN7">
+        <v>1.8172226847752431E-3</v>
+      </c>
+      <c r="AO7">
+        <v>1.8722746473717421E-3</v>
+      </c>
+      <c r="AP7">
+        <v>1.925745003357925E-3</v>
+      </c>
+      <c r="AQ7">
+        <v>1.9776700406477919E-3</v>
+      </c>
+      <c r="AR7">
+        <v>2.0280856203383291E-3</v>
+      </c>
+      <c r="AS7">
+        <v>2.077027048411121E-3</v>
+      </c>
+      <c r="AT7">
+        <v>2.1245289995394552E-3</v>
+      </c>
+      <c r="AU7">
+        <v>2.17062547479981E-3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.07460167615704844</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.03970924104729085</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02328998227917119</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0127508476836001</v>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7.4601676157048435E-2</v>
+      </c>
+      <c r="B8">
+        <v>3.9709241047290851E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.332066341633441E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.284617951934545E-2</v>
+      </c>
+      <c r="E8">
+        <v>6.9140275168717699E-3</v>
+      </c>
+      <c r="F8">
+        <v>3.647118043528979E-3</v>
+      </c>
+      <c r="G8">
+        <v>1.844693615204818E-3</v>
+      </c>
+      <c r="H8">
+        <v>8.3487561041567775E-4</v>
+      </c>
+      <c r="I8">
+        <v>2.5489636953514441E-4</v>
+      </c>
+      <c r="J8">
+        <v>-8.9857506429718924E-5</v>
+      </c>
+      <c r="K8">
+        <v>-3.0424126486870928E-4</v>
+      </c>
+      <c r="L8">
+        <v>-4.4526602980372171E-4</v>
+      </c>
+      <c r="M8">
+        <v>-5.4429677578901907E-4</v>
+      </c>
+      <c r="N8">
+        <v>-6.1882350159909159E-4</v>
+      </c>
+      <c r="O8">
+        <v>-6.7874100527210855E-4</v>
+      </c>
+      <c r="P8">
+        <v>-7.2972920073594287E-4</v>
+      </c>
+      <c r="Q8">
+        <v>-7.7509349485775441E-4</v>
+      </c>
+      <c r="R8">
+        <v>-8.1678043707502984E-4</v>
+      </c>
+      <c r="S8">
+        <v>-8.559469376313814E-4</v>
+      </c>
+      <c r="T8">
+        <v>-8.93284656322741E-4</v>
+      </c>
+      <c r="U8">
+        <v>-9.2920805472278007E-4</v>
+      </c>
+      <c r="V8">
+        <v>-9.6396521590801196E-4</v>
+      </c>
+      <c r="W8">
+        <v>-9.9770410785347059E-4</v>
+      </c>
+      <c r="X8">
+        <v>-1.030512666123744E-3</v>
+      </c>
+      <c r="Y8">
+        <v>-1.0624432253438119E-3</v>
+      </c>
+      <c r="Z8">
+        <v>-1.0935274524770851E-3</v>
+      </c>
+      <c r="AA8">
+        <v>-1.123785447572965E-3</v>
+      </c>
+      <c r="AB8">
+        <v>-1.1532312349672991E-3</v>
+      </c>
+      <c r="AC8">
+        <v>-1.1818760136078361E-3</v>
+      </c>
+      <c r="AD8">
+        <v>-1.2097300190756989E-3</v>
+      </c>
+      <c r="AE8">
+        <v>-1.236803532467769E-3</v>
+      </c>
+      <c r="AF8">
+        <v>-1.2631073731402709E-3</v>
+      </c>
+      <c r="AG8">
+        <v>-1.288653087202641E-3</v>
+      </c>
+      <c r="AH8">
+        <v>-1.313452964100154E-3</v>
+      </c>
+      <c r="AI8">
+        <v>-1.3375199628718911E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>-1.36086759734827E-3</v>
+      </c>
+      <c r="AK8">
+        <v>-1.383509809061795E-3</v>
+      </c>
+      <c r="AL8">
+        <v>-1.405460843850145E-3</v>
+      </c>
+      <c r="AM8">
+        <v>-1.42673514019211E-3</v>
+      </c>
+      <c r="AN8">
+        <v>-1.4473472326199479E-3</v>
+      </c>
+      <c r="AO8">
+        <v>-1.467311670780691E-3</v>
+      </c>
+      <c r="AP8">
+        <v>-1.4866429532737701E-3</v>
+      </c>
+      <c r="AQ8">
+        <v>-1.505355474670989E-3</v>
+      </c>
+      <c r="AR8">
+        <v>-1.523463483864678E-3</v>
+      </c>
+      <c r="AS8">
+        <v>-1.5409810519305461E-3</v>
+      </c>
+      <c r="AT8">
+        <v>-1.5579220477970159E-3</v>
+      </c>
+      <c r="AU8">
+        <v>-1.574300120243033E-3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.2380247451878268</v>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.23802474518782679</v>
+      </c>
+      <c r="B9">
         <v>0.1247041208806649</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.07355269465871508</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.04434355167199876</v>
+      <c r="C9">
+        <v>7.3533366683276952E-2</v>
+      </c>
+      <c r="D9">
+        <v>4.4298096920401327E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.6547542880513999E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.547125476888034E-2</v>
+      </c>
+      <c r="G9">
+        <v>8.467184436756911E-3</v>
+      </c>
+      <c r="H9">
+        <v>4.0095462676142668E-3</v>
+      </c>
+      <c r="I9">
+        <v>1.1676268225261719E-3</v>
+      </c>
+      <c r="J9">
+        <v>-6.3884160871477132E-4</v>
+      </c>
+      <c r="K9">
+        <v>-1.7768412396180261E-3</v>
+      </c>
+      <c r="L9">
+        <v>-2.4809346556404488E-3</v>
+      </c>
+      <c r="M9">
+        <v>-2.9023069341256131E-3</v>
+      </c>
+      <c r="N9">
+        <v>-3.139066054578823E-3</v>
+      </c>
+      <c r="O9">
+        <v>-3.2552273826978672E-3</v>
+      </c>
+      <c r="P9">
+        <v>-3.2927439516314142E-3</v>
+      </c>
+      <c r="Q9">
+        <v>-3.279202814789205E-3</v>
+      </c>
+      <c r="R9">
+        <v>-3.2327885932839791E-3</v>
+      </c>
+      <c r="S9">
+        <v>-3.1655064318243408E-3</v>
+      </c>
+      <c r="T9">
+        <v>-3.0852867177554458E-3</v>
+      </c>
+      <c r="U9">
+        <v>-2.9973660662680379E-3</v>
+      </c>
+      <c r="V9">
+        <v>-2.905196950892986E-3</v>
+      </c>
+      <c r="W9">
+        <v>-2.8110487256867382E-3</v>
+      </c>
+      <c r="X9">
+        <v>-2.7164057050212049E-3</v>
+      </c>
+      <c r="Y9">
+        <v>-2.622231305993135E-3</v>
+      </c>
+      <c r="Z9">
+        <v>-2.5291435380674471E-3</v>
+      </c>
+      <c r="AA9">
+        <v>-2.4375316795282841E-3</v>
+      </c>
+      <c r="AB9">
+        <v>-2.3476338691848001E-3</v>
+      </c>
+      <c r="AC9">
+        <v>-2.2595886923625209E-3</v>
+      </c>
+      <c r="AD9">
+        <v>-2.1734694506671129E-3</v>
+      </c>
+      <c r="AE9">
+        <v>-2.0893068981679792E-3</v>
+      </c>
+      <c r="AF9">
+        <v>-2.0071042967527101E-3</v>
+      </c>
+      <c r="AG9">
+        <v>-1.9268473594983241E-3</v>
+      </c>
+      <c r="AH9">
+        <v>-1.8485107954106859E-3</v>
+      </c>
+      <c r="AI9">
+        <v>-1.7720625981939039E-3</v>
+      </c>
+      <c r="AJ9">
+        <v>-1.6974668407332149E-3</v>
+      </c>
+      <c r="AK9">
+        <v>-1.6246854825713449E-3</v>
+      </c>
+      <c r="AL9">
+        <v>-1.5536795277110689E-3</v>
+      </c>
+      <c r="AM9">
+        <v>-1.484409756712775E-3</v>
+      </c>
+      <c r="AN9">
+        <v>-1.416837181347894E-3</v>
+      </c>
+      <c r="AO9">
+        <v>-1.350923319726925E-3</v>
+      </c>
+      <c r="AP9">
+        <v>-1.28663035625778E-3</v>
+      </c>
+      <c r="AQ9">
+        <v>-1.223921228564379E-3</v>
+      </c>
+      <c r="AR9">
+        <v>-1.1627596687873391E-3</v>
+      </c>
+      <c r="AS9">
+        <v>-1.103110216942603E-3</v>
+      </c>
+      <c r="AT9">
+        <v>-1.0449382176855239E-3</v>
+      </c>
+      <c r="AU9">
+        <v>-9.8820980761542884E-4</v>
       </c>
     </row>
   </sheetData>
